--- a/PHP/MyExcel.xlsx
+++ b/PHP/MyExcel.xlsx
@@ -15,33 +15,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
-  <si>
-    <t>iyiuk</t>
-  </si>
-  <si>
-    <t>allo</t>
-  </si>
-  <si>
-    <t>fdffdgfgf</t>
-  </si>
-  <si>
-    <t>fgfgfgfgfgfgf4rrrrrr</t>
-  </si>
-  <si>
-    <t>qwqwqwqwqw</t>
-  </si>
-  <si>
-    <t>hbghghghhg</t>
-  </si>
-  <si>
-    <t>nbnbnnbnbbnb</t>
-  </si>
-  <si>
-    <t>iuiuiuiuiuiu</t>
-  </si>
-  <si>
-    <t>oipopoppo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>iyiuk1</t>
+  </si>
+  <si>
+    <t>gbhfu2</t>
+  </si>
+  <si>
+    <t>dffhgghhgh3</t>
+  </si>
+  <si>
+    <t>tefdfdff</t>
+  </si>
+  <si>
+    <t>fdffdgfgf4</t>
+  </si>
+  <si>
+    <t>jhjkjk</t>
+  </si>
+  <si>
+    <t>fgfgfgfgfgfgf4rrrrrr5</t>
+  </si>
+  <si>
+    <t>uyuyuyu</t>
+  </si>
+  <si>
+    <t>qwqwqwqwqw6</t>
+  </si>
+  <si>
+    <t>jmnnm</t>
+  </si>
+  <si>
+    <t>hbghghghhg7</t>
+  </si>
+  <si>
+    <t>565y6yty</t>
+  </si>
+  <si>
+    <t>nbnbnnbnbbnb8</t>
+  </si>
+  <si>
+    <t>mnmnmnmnmn</t>
+  </si>
+  <si>
+    <t>iuiuiuiuiuiu9</t>
+  </si>
+  <si>
+    <t>rererre</t>
+  </si>
+  <si>
+    <t>oipopoppo10</t>
+  </si>
+  <si>
+    <t>allo11</t>
+  </si>
+  <si>
+    <t>allo12</t>
+  </si>
+  <si>
+    <t>ewewew13</t>
+  </si>
+  <si>
+    <t>trtrtrtrtr</t>
+  </si>
+  <si>
+    <t>gfhjhjhj14</t>
+  </si>
+  <si>
+    <t>qsaddsd</t>
+  </si>
+  <si>
+    <t>nmmnmnmn15</t>
+  </si>
+  <si>
+    <t>ghgnbbnbn</t>
+  </si>
+  <si>
+    <t>gfgfgfgf16</t>
+  </si>
+  <si>
+    <t>trtrtrtrt</t>
+  </si>
+  <si>
+    <t>wewee17</t>
+  </si>
+  <si>
+    <t>jhkjjkjkj</t>
+  </si>
+  <si>
+    <t>bnmnmn18</t>
+  </si>
+  <si>
+    <t>fggfghghfhg</t>
+  </si>
+  <si>
+    <t>cxdsds19</t>
+  </si>
+  <si>
+    <t>weweerretryui20</t>
+  </si>
+  <si>
+    <t>njhhjhjj21</t>
+  </si>
+  <si>
+    <t>tytytytytyt22</t>
   </si>
 </sst>
 </file>
@@ -380,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,55 +466,174 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19">
+        <v>23233232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
